--- a/【山本麗葉】DB設計.xlsx
+++ b/【山本麗葉】DB設計.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolf\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolf\Desktop\WIZ\システム開発１\22310121-yamamotouruha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDE143E-5F06-432F-863B-B6E1759B04FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18177AF3-6E7F-48D4-9E65-759621F1571C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7A78756B-6636-4BC2-B161-E00E0CF4E454}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="294">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -1407,6 +1407,10 @@
   </si>
   <si>
     <t>CHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あいうえお</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1675,7 +1679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1758,6 +1762,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1769,15 +1776,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2096,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F96BB4-42F2-4B8D-88E3-7FDC140FB6D9}">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2181,7 +2179,9 @@
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="3">
+        <v>45068</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -2268,7 +2268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="25" t="s">
         <v>25</v>
       </c>
@@ -2289,28 +2289,30 @@
         <v>255</v>
       </c>
       <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="I5" s="25">
+        <v>1</v>
+      </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
       <c r="L5" s="25">
         <v>1</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2331,10 +2333,12 @@
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="32">
+        <v>45068</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="38">
+      <c r="L6" s="32">
         <v>45051</v>
       </c>
       <c r="O6" s="8"/>
@@ -2363,7 +2367,9 @@
         <v>30</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>293</v>
+      </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8" t="s">
@@ -2407,7 +2413,9 @@
         <v>10</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="8">
+        <v>3500</v>
+      </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8">
@@ -2451,7 +2459,9 @@
         <v>10</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="I9" s="8">
+        <v>2500</v>
+      </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8">
@@ -2495,7 +2505,9 @@
         <v>10</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="8">
+        <v>1000</v>
+      </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8">
@@ -4618,10 +4630,10 @@
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4652,10 +4664,10 @@
       <c r="B2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -5771,7 +5783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="25" t="s">
         <v>25</v>
       </c>
@@ -5796,22 +5808,22 @@
       <c r="L5" s="25">
         <v>1</v>
       </c>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5835,7 +5847,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="38">
+      <c r="L6" s="32">
         <v>45051</v>
       </c>
       <c r="O6" s="8"/>
@@ -8684,10 +8696,10 @@
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8718,10 +8730,10 @@
       <c r="B2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -9701,10 +9713,10 @@
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9735,10 +9747,10 @@
       <c r="B2" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -10181,12 +10193,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10346,15 +10355,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFDE22E-CF39-41C3-A7A5-9E71FC23AAF9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C89C79-E5CA-40C7-A0FE-46F45731808E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10378,10 +10391,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C89C79-E5CA-40C7-A0FE-46F45731808E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFDE22E-CF39-41C3-A7A5-9E71FC23AAF9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>